--- a/report moi tuan/tuan 6/1159032-1359035-1359037-1359038.xlsx
+++ b/report moi tuan/tuan 6/1159032-1359035-1359037-1359038.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CJ\Documents\PM---Group-10\report moi tuan\tuan 5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\son long\Documents\PM---Group-10\report moi tuan\tuan 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
   <si>
     <t>MSSV</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>Trần Đoàn Hải Phong</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa lại phần đăng kí tài khoản thành viên</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project </t>
   </si>
 </sst>
 </file>
@@ -513,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,6 +840,40 @@
         <v>22</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1359037</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1359037</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -842,10 +882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,6 +1267,23 @@
       </c>
       <c r="E22">
         <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2">
+        <v>42619</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23">
+        <v>1359037</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/report moi tuan/tuan 6/1159032-1359035-1359037-1359038.xlsx
+++ b/report moi tuan/tuan 6/1159032-1359035-1359037-1359038.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>MSSV</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t xml:space="preserve">project </t>
+  </si>
+  <si>
+    <t>Hoàn thành chức năng hiển thị sản phẩm và thông tin</t>
   </si>
 </sst>
 </file>
@@ -519,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,6 +877,23 @@
         <v>46</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1359037</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -882,10 +902,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,6 +1304,23 @@
       </c>
       <c r="E23">
         <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2">
+        <v>42649</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24">
+        <v>1359037</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/report moi tuan/tuan 6/1159032-1359035-1359037-1359038.xlsx
+++ b/report moi tuan/tuan 6/1159032-1359035-1359037-1359038.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="50">
   <si>
     <t>MSSV</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Hoàn thành chức năng hiển thị sản phẩm và thông tin</t>
+  </si>
+  <si>
+    <t>Search Servlet</t>
   </si>
 </sst>
 </file>
@@ -522,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,6 +897,23 @@
         <v>48</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1359037</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -902,10 +922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,6 +1341,23 @@
       </c>
       <c r="E24">
         <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2">
+        <v>42710</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <v>1359037</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
